--- a/HW4/Excell graphs/Problem 1/5) Lanczos/lanczos2.xlsx
+++ b/HW4/Excell graphs/Problem 1/5) Lanczos/lanczos2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yongcheng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPOSITORIES\GH\ImageProcessing\HW4\Excell graphs\Problem 1\5) Lanczos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53080FC-0D82-49B9-B5FC-C668E79E8E7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD862CB-D680-46BB-826A-7C2A321B0E3C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3990" xr2:uid="{616A5025-A885-4823-BA7A-E97ED2F48EBE}"/>
+    <workbookView xWindow="810" yWindow="1035" windowWidth="17970" windowHeight="19305" xr2:uid="{616A5025-A885-4823-BA7A-E97ED2F48EBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -190,769 +190,769 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>99.888499999999993</c:v>
+                  <c:v>99.325500000000005</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>99.2166</c:v>
+                  <c:v>98.855500000000006</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>97.703199999999995</c:v>
+                  <c:v>97.990300000000005</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>95.526499999999999</c:v>
+                  <c:v>96.499300000000005</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>93.408600000000007</c:v>
+                  <c:v>94.757599999999996</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>92.534599999999998</c:v>
+                  <c:v>93.781099999999995</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>94.309299999999993</c:v>
+                  <c:v>95.0274</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>110.253</c:v>
+                  <c:v>108.669</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>124.542</c:v>
+                  <c:v>121.82299999999999</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>141.49199999999999</c:v>
+                  <c:v>138.274</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>159.21100000000001</c:v>
+                  <c:v>156.14099999999999</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>175.60599999999999</c:v>
+                  <c:v>173.18299999999999</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>188.74199999999999</c:v>
+                  <c:v>187.214</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>197.143</c:v>
+                  <c:v>196.49100000000001</c:v>
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>197.143</c:v>
+                  <c:v>196.49100000000001</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>188.74199999999999</c:v>
+                  <c:v>187.214</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>175.60599999999999</c:v>
+                  <c:v>173.18299999999999</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>159.21100000000001</c:v>
+                  <c:v>156.14099999999999</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>141.49199999999999</c:v>
+                  <c:v>138.274</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>124.542</c:v>
+                  <c:v>121.82299999999999</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>110.253</c:v>
+                  <c:v>108.669</c:v>
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>94.309299999999993</c:v>
+                  <c:v>95.0274</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>92.534599999999998</c:v>
+                  <c:v>93.781099999999995</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>93.408600000000007</c:v>
+                  <c:v>94.757599999999996</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>95.526499999999999</c:v>
+                  <c:v>96.499300000000005</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>97.703199999999995</c:v>
+                  <c:v>97.990300000000005</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>99.2166</c:v>
+                  <c:v>98.855500000000006</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>99.888499999999993</c:v>
+                  <c:v>99.325500000000005</c:v>
                 </c:pt>
                 <c:pt idx="136">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="144">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="152">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="160">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="168">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="176">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="184">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="192">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="200">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="208">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="216">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="224">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="232">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="240">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="248">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>101.895</c:v>
+                  <c:v>101.056</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>101.642</c:v>
+                  <c:v>100.84099999999999</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>101.00700000000001</c:v>
+                  <c:v>100.33499999999999</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>100.319</c:v>
+                  <c:v>99.902600000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2021,9 +2021,9 @@
       <selection activeCell="B2" sqref="B2:B257"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2039,63 +2039,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2103,63 +2103,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2167,63 +2167,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2231,63 +2231,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2295,63 +2295,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2359,63 +2359,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2423,63 +2423,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2487,63 +2487,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2551,63 +2551,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2615,63 +2615,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2679,63 +2679,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2743,63 +2743,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -2807,63 +2807,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -2871,63 +2871,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>99.888499999999993</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.325500000000005</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>99.2166</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+        <v>98.855500000000006</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>97.703199999999995</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+        <v>97.990300000000005</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>95.526499999999999</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+        <v>96.499300000000005</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>93.408600000000007</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+        <v>94.757599999999996</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>92.534599999999998</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+        <v>93.781099999999995</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>94.309299999999993</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+        <v>95.0274</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -2935,63 +2935,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>110.253</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+        <v>108.669</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>124.542</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+        <v>121.82299999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>141.49199999999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+        <v>138.274</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>159.21100000000001</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+        <v>156.14099999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>175.60599999999999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+        <v>173.18299999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>188.74199999999999</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+        <v>187.214</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>197.143</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+        <v>196.49100000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -2999,63 +2999,63 @@
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>197.143</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+        <v>196.49100000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>188.74199999999999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+        <v>187.214</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>175.60599999999999</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+        <v>173.18299999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>159.21100000000001</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+        <v>156.14099999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>141.49199999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+        <v>138.274</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>124.542</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+        <v>121.82299999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>110.253</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+        <v>108.669</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -3063,63 +3063,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>94.309299999999993</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+        <v>95.0274</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>92.534599999999998</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+        <v>93.781099999999995</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>93.408600000000007</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+        <v>94.757599999999996</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>95.526499999999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+        <v>96.499300000000005</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>97.703199999999995</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+        <v>97.990300000000005</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>99.2166</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+        <v>98.855500000000006</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>99.888499999999993</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.325500000000005</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -3127,63 +3127,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -3191,63 +3191,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -3255,63 +3255,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -3319,63 +3319,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -3383,63 +3383,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -3447,63 +3447,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -3511,63 +3511,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -3575,63 +3575,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
       <c r="B197">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
       <c r="B198">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
       <c r="B199">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
       <c r="B200">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
       <c r="B201">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -3639,63 +3639,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
       <c r="B203">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
       <c r="B204">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
       <c r="B205">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
       <c r="B206">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
       <c r="B207">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
       <c r="B208">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -3703,63 +3703,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
       <c r="B211">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
       <c r="B212">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
       <c r="B213">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
       <c r="B214">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
       <c r="B215">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
       <c r="B216">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
       <c r="B217">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -3767,63 +3767,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
       <c r="B219">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
       <c r="B220">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
       <c r="B221">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
       <c r="B222">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
       <c r="B223">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
       <c r="B224">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
       <c r="B225">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -3831,63 +3831,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
       <c r="B227">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
       <c r="B228">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
       <c r="B229">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
       <c r="B230">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
       <c r="B231">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
       <c r="B232">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
       <c r="B233">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -3895,63 +3895,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
       <c r="B235">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
       <c r="B236">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
       <c r="B237">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
       <c r="B238">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
       <c r="B239">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
       <c r="B240">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
       <c r="B241">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -3959,63 +3959,63 @@
         <v>100</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
       <c r="B243">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
       <c r="B244">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
       <c r="B245">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
       <c r="B246">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
       <c r="B247">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
       <c r="B248">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
       <c r="B249">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -4023,60 +4023,60 @@
         <v>100</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
       <c r="B251">
-        <v>100.319</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99.902600000000007</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
       <c r="B252">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
       <c r="B253">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
       <c r="B254">
-        <v>101.895</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101.056</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
       <c r="B255">
-        <v>101.642</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.84099999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
       <c r="B256">
-        <v>101.00700000000001</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100.33499999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
       <c r="B257">
-        <v>100.319</v>
+        <v>99.902600000000007</v>
       </c>
     </row>
   </sheetData>

--- a/HW4/Excell graphs/Problem 1/5) Lanczos/lanczos2.xlsx
+++ b/HW4/Excell graphs/Problem 1/5) Lanczos/lanczos2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPOSITORIES\GH\ImageProcessing\HW4\Excell graphs\Problem 1\5) Lanczos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD862CB-D680-46BB-826A-7C2A321B0E3C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4BD575-D5B0-47EB-8CF6-809CC1C0BB10}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="1035" windowWidth="17970" windowHeight="19305" xr2:uid="{616A5025-A885-4823-BA7A-E97ED2F48EBE}"/>
   </bookViews>
@@ -126,7 +126,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>lanczos, param = 2</a:t>
+              <a:t>Lanczos Magnification (param = 2)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -162,7 +162,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247594050743664E-2"/>
+          <c:y val="0.16183856502242155"/>
+          <c:w val="0.89019685039370078"/>
+          <c:h val="0.71756399844638252"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1681,16 +1691,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>225425</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>6</xdr:rowOff>
+      <xdr:rowOff>171456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>530225</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>165106</xdr:rowOff>
+      <xdr:colOff>282575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>146056</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2018,7 +2028,7 @@
   <dimension ref="A1:B257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B257"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
